--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TanakaMo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.163.21\share\企画\020_部局・各課懸案\新型コロナ肺炎\コロナサイト立ち上げ\更新用データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
+    <workbookView xWindow="2010" yWindow="0" windowWidth="20490" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2112,10 +2112,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2127,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43922</v>
+        <v>43924</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2783,6 +2783,28 @@
       </c>
       <c r="C61" s="5">
         <v>1822</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B62" s="5">
+        <v>1158</v>
+      </c>
+      <c r="C62" s="5">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B63" s="5">
+        <v>1178</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1974</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TanakaMo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.163.21\share\企画\020_部局・各課懸案\新型コロナ肺炎\コロナサイト立ち上げ\更新用データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
+    <workbookView xWindow="2010" yWindow="0" windowWidth="20490" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2112,10 +2112,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2127,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43922</v>
+        <v>43927</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2783,6 +2783,61 @@
       </c>
       <c r="C61" s="5">
         <v>1822</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B62" s="5">
+        <v>1158</v>
+      </c>
+      <c r="C62" s="5">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B63" s="5">
+        <v>1178</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B64" s="5">
+        <v>191</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B65" s="5">
+        <v>188</v>
+      </c>
+      <c r="C65" s="5">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B66" s="5">
+        <v>1625</v>
+      </c>
+      <c r="C66" s="5">
+        <v>2165</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -95,12 +95,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -143,7 +149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -166,6 +172,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2115,7 +2124,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2130,7 +2139,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43936</v>
+        <v>43941</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2940,6 +2949,61 @@
       </c>
       <c r="C75" s="7">
         <v>2343</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B76" s="7">
+        <v>1245</v>
+      </c>
+      <c r="C76" s="3">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B77" s="7">
+        <v>1176</v>
+      </c>
+      <c r="C77" s="8">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B78" s="8">
+        <v>443</v>
+      </c>
+      <c r="C78" s="8">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B79" s="8">
+        <v>445</v>
+      </c>
+      <c r="C79" s="8">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B80" s="8">
+        <v>1377</v>
+      </c>
+      <c r="C80" s="8">
+        <v>2460</v>
       </c>
     </row>
   </sheetData>
